--- a/app/data/Colombo_dt.xlsx
+++ b/app/data/Colombo_dt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Software Dissertation New Final\Project Data\Destination Data\Final_Data_Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Software Dissertation New Final\System\Trek_Seeker_Web_App_Python\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD9C284-5A88-4752-9041-8AAE4C40F0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C8942F-6089-46B2-8C90-AC3B3E3A3597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <t>St Anthony's Church</t>
   </si>
   <si>
-    <t>Royal Colombo Gold Club</t>
-  </si>
-  <si>
     <t>Seema Malaka Temple</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>Independence Square Arcade</t>
+  </si>
+  <si>
+    <t>Royal Colombo Golf Club</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -676,7 +676,7 @@
         <v>St Anthony's Church</v>
       </c>
       <c r="AD1" s="2" t="str">
-        <v>Royal Colombo Gold Club</v>
+        <v>Royal Colombo Golf Club</v>
       </c>
       <c r="AE1" s="2" t="str">
         <v>Seema Malaka Temple</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2">
         <v>17</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>6</v>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>14</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>13</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>4</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>89</v>
@@ -4754,7 +4754,7 @@
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>3</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>8</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>9</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
         <v>11</v>
